--- a/q-n-t.com/q-n-t.com.xlsx
+++ b/q-n-t.com/q-n-t.com.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nafees\Desktop\office\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nafees\Desktop\office\q-n-t.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22EE0E8-DED6-4C79-A0DE-FECC4CDAC627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B347E6-99CC-4B21-8AAF-4C8AA4BC2C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="151">
   <si>
     <t>Product Name</t>
   </si>
@@ -139,14 +139,364 @@
     <t>TC008</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
     <t>Md.Habibul Islam Safin</t>
   </si>
   <si>
     <t>Intigsol developer team</t>
+  </si>
+  <si>
+    <t>q-n-t.com</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Enter q-n-t.com</t>
+  </si>
+  <si>
+    <t>1.Put url in the brwser and enter</t>
+  </si>
+  <si>
+    <t>Successfully enter</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>1.Click logo</t>
+  </si>
+  <si>
+    <t>Will go to top or home page</t>
+  </si>
+  <si>
+    <t>go to top</t>
+  </si>
+  <si>
+    <t>Navbar</t>
+  </si>
+  <si>
+    <t>1.Click Home button</t>
+  </si>
+  <si>
+    <t>Should go to the home</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Home section</t>
+  </si>
+  <si>
+    <t>Show Quality &amp; Tasty page profile</t>
+  </si>
+  <si>
+    <t>1.Click facebook logo</t>
+  </si>
+  <si>
+    <t>1.Click instagram logo</t>
+  </si>
+  <si>
+    <t>1.Click linkedIn logo</t>
+  </si>
+  <si>
+    <t>1.Click Explore button</t>
+  </si>
+  <si>
+    <t>Button should work</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>1.Click about</t>
+  </si>
+  <si>
+    <t>Should go about page or section</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>About section</t>
+  </si>
+  <si>
+    <t>Content should perfect</t>
+  </si>
+  <si>
+    <t>TC010</t>
+  </si>
+  <si>
+    <t>1.Click products</t>
+  </si>
+  <si>
+    <t>Should go products page or section</t>
+  </si>
+  <si>
+    <t>TC011</t>
+  </si>
+  <si>
+    <t>product section</t>
+  </si>
+  <si>
+    <t>1.First row second product</t>
+  </si>
+  <si>
+    <t>Product title should right</t>
+  </si>
+  <si>
+    <t>one extra "t" added</t>
+  </si>
+  <si>
+    <t>TC012</t>
+  </si>
+  <si>
+    <t>1.Click FAQs</t>
+  </si>
+  <si>
+    <t>Will go to FAQs page or section</t>
+  </si>
+  <si>
+    <t>FAQs section</t>
+  </si>
+  <si>
+    <t>All button,s and content's are ok</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>1.Click all button</t>
+  </si>
+  <si>
+    <t>TC014</t>
+  </si>
+  <si>
+    <t>TC013</t>
+  </si>
+  <si>
+    <t>1.Click Contact Us button</t>
+  </si>
+  <si>
+    <t>Successfully go to Contact Us page or section</t>
+  </si>
+  <si>
+    <t>TC015</t>
+  </si>
+  <si>
+    <t>Contact Us section</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>TC016</t>
+  </si>
+  <si>
+    <t>Contact Us section form</t>
+  </si>
+  <si>
+    <t>Email:test@G</t>
+  </si>
+  <si>
+    <t>can't reach</t>
+  </si>
+  <si>
+    <t>send message</t>
+  </si>
+  <si>
+    <t>1.Wrong email input
+2.Click Send Message button</t>
+  </si>
+  <si>
+    <t>TC017</t>
+  </si>
+  <si>
+    <t>Subject:test</t>
+  </si>
+  <si>
+    <t>1.Click send message button</t>
+  </si>
+  <si>
+    <t>Should send</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>TC018</t>
+  </si>
+  <si>
+    <t>Subject: test
+Message: testing by nafis</t>
+  </si>
+  <si>
+    <t>TC019</t>
+  </si>
+  <si>
+    <t>Email: testing@gmail.com
+Subject: testing
+Message: testing by nafis</t>
+  </si>
+  <si>
+    <t>TC020</t>
+  </si>
+  <si>
+    <t>1.Click send message button
+2.Again click send message same data</t>
+  </si>
+  <si>
+    <t>Should send again</t>
+  </si>
+  <si>
+    <t>Without page re-open can't send any data</t>
+  </si>
+  <si>
+    <t>TC021</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>1.Click on logo</t>
+  </si>
+  <si>
+    <t>Should go to the home page or section</t>
+  </si>
+  <si>
+    <t>TC022</t>
+  </si>
+  <si>
+    <t>footer title contant should right</t>
+  </si>
+  <si>
+    <t>one text "newsletter" not ok</t>
+  </si>
+  <si>
+    <t>TC023</t>
+  </si>
+  <si>
+    <t>1.Footer contant contact us
+2.Click facebook
+3.Click instagram
+4.Click linkedIn</t>
+  </si>
+  <si>
+    <t>All button logo and link's should ok</t>
+  </si>
+  <si>
+    <t>TC024</t>
+  </si>
+  <si>
+    <t>1.Footer logo title</t>
+  </si>
+  <si>
+    <t>1.Click Terms &amp; Conditions</t>
+  </si>
+  <si>
+    <t>Should go to Terms &amp; Conditions page</t>
+  </si>
+  <si>
+    <t>TC025</t>
+  </si>
+  <si>
+    <t>1.Click Privacy Policy</t>
+  </si>
+  <si>
+    <t>Should go to Privacy Policy page</t>
+  </si>
+  <si>
+    <t>TC026</t>
+  </si>
+  <si>
+    <t>Footer subscribe</t>
+  </si>
+  <si>
+    <t>text: nafis</t>
+  </si>
+  <si>
+    <t>1.Click subscribe button</t>
+  </si>
+  <si>
+    <t>Should subscribe</t>
+  </si>
+  <si>
+    <t>working and not can't understand</t>
+  </si>
+  <si>
+    <t>TC027</t>
+  </si>
+  <si>
+    <t>Email: testing@gmail.com</t>
+  </si>
+  <si>
+    <t>TC028</t>
+  </si>
+  <si>
+    <t>Footer copyright section one</t>
+  </si>
+  <si>
+    <t>1.Click AL-Manar Group</t>
+  </si>
+  <si>
+    <t>Opens AL-Manar Group site</t>
+  </si>
+  <si>
+    <t>TC029</t>
+  </si>
+  <si>
+    <t>Footer copyright section two</t>
+  </si>
+  <si>
+    <t>1.Click INTIGSOL
+2.Click TMAC</t>
+  </si>
+  <si>
+    <t>Opens INTIGSOL and TMAC page</t>
+  </si>
+  <si>
+    <t>opens</t>
+  </si>
+  <si>
+    <t>TC030</t>
+  </si>
+  <si>
+    <t>Scrollup icon</t>
+  </si>
+  <si>
+    <t>1.Click scrollup icon</t>
+  </si>
+  <si>
+    <t>Scrollup and go to top of the page</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>TC031</t>
+  </si>
+  <si>
+    <t>Navbar theme button</t>
+  </si>
+  <si>
+    <t>1.Click in white theme</t>
+  </si>
+  <si>
+    <t>TC032</t>
+  </si>
+  <si>
+    <t>1.Click in dark mood</t>
+  </si>
+  <si>
+    <t>It will be a dark mood</t>
+  </si>
+  <si>
+    <t>It will be a white mood</t>
   </si>
 </sst>
 </file>
@@ -250,7 +600,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,7 +651,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,7 +764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -467,9 +823,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -548,31 +901,43 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1118,6 +1483,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
+      <color rgb="FFFF0000"/>
       <color rgb="FF00CC00"/>
     </mruColors>
   </colors>
@@ -1396,74 +1763,78 @@
   <dimension ref="A1:I980"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="39" t="s">
+        <v>36</v>
+      </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="41"/>
+      <c r="E1" s="40">
+        <v>44565</v>
+      </c>
       <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="54" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="51"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:9" ht="12.75">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="5"/>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="42"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="42"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="31">
-        <f>COUNTIF(G7:G48,"PASS")</f>
-        <v>0</v>
+      <c r="I2" s="30">
+        <f>COUNTIF(G7:G50,"PASS")</f>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1">
-      <c r="A3" s="55"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="42" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1475,53 +1846,55 @@
       <c r="H3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="32">
-        <f>COUNTIF(G7:G48,"Fail")</f>
-        <v>0</v>
+      <c r="I3" s="31">
+        <f>COUNTIF(G7:G50,"FAIL")</f>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="33">
-        <f>COUNTIF(G8:G48,"Warning")</f>
+      <c r="I4" s="32">
+        <f>COUNTIF(G8:G50,"WARNING")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="51"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="33">
         <f>SUM(I2:I4:I3)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
@@ -1550,453 +1923,819 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="60.6" customHeight="1">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:9" ht="28.5" customHeight="1">
+      <c r="A7" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="C7" s="15"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="44"/>
-    </row>
-    <row r="8" spans="1:9" ht="25.5">
+      <c r="D7" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="43"/>
+    </row>
+    <row r="8" spans="1:9" ht="22.5" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C8" s="15"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="44"/>
-    </row>
-    <row r="9" spans="1:9" ht="25.5">
+      <c r="D8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="43"/>
+    </row>
+    <row r="9" spans="1:9" ht="24" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C9" s="15"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="44"/>
-    </row>
-    <row r="10" spans="1:9" ht="25.5">
-      <c r="A10" s="35" t="s">
+      <c r="D9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="43"/>
+    </row>
+    <row r="10" spans="1:9" ht="12.75">
+      <c r="A10" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="44"/>
-    </row>
-    <row r="11" spans="1:9" ht="25.5">
-      <c r="A11" s="39" t="s">
+      <c r="B10" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="43"/>
+    </row>
+    <row r="11" spans="1:9" ht="12.75">
+      <c r="A11" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>34</v>
+      <c r="B11" s="36" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="18"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="49"/>
+      <c r="D11" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>7</v>
+      </c>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="37"/>
+      <c r="B12" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="C12" s="18"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="48"/>
+      <c r="D12" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>7</v>
+      </c>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:9" ht="25.5">
-      <c r="A13" s="35" t="s">
+    <row r="13" spans="1:9" ht="12.75">
+      <c r="A13" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>34</v>
+      <c r="B13" s="36" t="s">
+        <v>50</v>
       </c>
       <c r="C13" s="18"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="1:9" ht="25.5">
-      <c r="A14" s="45" t="s">
+      <c r="D13" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" ht="12.75">
+      <c r="A14" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="25"/>
+      <c r="B14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:9" ht="12.75">
-      <c r="A15" s="13"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="C15" s="18"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="25"/>
+      <c r="E15" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:9" ht="12.75">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="25"/>
+      <c r="A16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="12.75">
-      <c r="A17" s="23"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="27"/>
+      <c r="A17" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:8" ht="12.75">
-      <c r="A18" s="13"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="25"/>
+      <c r="A18" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="12.75">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="27"/>
-    </row>
-    <row r="20" spans="1:8" ht="12.75">
-      <c r="A20" s="23"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="25"/>
+      <c r="A19" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" ht="12.75">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="23"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="25"/>
-    </row>
-    <row r="22" spans="1:8" ht="12.75">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="27"/>
-    </row>
-    <row r="23" spans="1:8" ht="12.75">
-      <c r="A23" s="23"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="25"/>
-    </row>
-    <row r="24" spans="1:8" ht="12.75">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="25"/>
-    </row>
-    <row r="25" spans="1:8" ht="12.75">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="27"/>
-    </row>
-    <row r="26" spans="1:8" ht="12.75">
-      <c r="A26" s="23"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="25"/>
+      <c r="E21" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="1:8" ht="25.5">
+      <c r="A22" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="26"/>
+    </row>
+    <row r="23" spans="1:8" ht="25.5">
+      <c r="A23" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:8" ht="38.25">
+      <c r="A24" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" ht="76.5">
+      <c r="A25" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="26"/>
+    </row>
+    <row r="26" spans="1:8" ht="25.5">
+      <c r="A26" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="24"/>
     </row>
     <row r="27" spans="1:8" ht="12.75">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="25"/>
+      <c r="A27" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="24"/>
     </row>
     <row r="28" spans="1:8" ht="12.75">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="27"/>
-    </row>
-    <row r="29" spans="1:8" ht="12.75">
-      <c r="A29" s="23"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="25"/>
+      <c r="A28" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="1:8" ht="51">
+      <c r="A29" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="24"/>
     </row>
     <row r="30" spans="1:8" ht="12.75">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="25"/>
+      <c r="A30" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="24"/>
     </row>
     <row r="31" spans="1:8" ht="12.75">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="27"/>
+      <c r="A31" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="26"/>
     </row>
     <row r="32" spans="1:8" ht="12.75">
-      <c r="A32" s="23"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="25"/>
-    </row>
-    <row r="33" spans="1:8" ht="12.75">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="25"/>
-    </row>
-    <row r="34" spans="1:8" ht="12.75">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="27"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="23"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="25"/>
+      <c r="A32" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="24"/>
+    </row>
+    <row r="33" spans="1:8" ht="38.25">
+      <c r="A33" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="24"/>
+    </row>
+    <row r="34" spans="1:8" ht="25.5">
+      <c r="A34" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="26"/>
+    </row>
+    <row r="35" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A35" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="24"/>
     </row>
     <row r="36" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="25"/>
+      <c r="A36" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="24"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="27"/>
+      <c r="A37" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="26"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="23"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="25"/>
+      <c r="A38" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="24"/>
     </row>
     <row r="39" spans="1:8" ht="30.75" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
-      <c r="C39" s="24"/>
+      <c r="C39" s="23"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
-      <c r="H39" s="25"/>
+      <c r="H39" s="24"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
-      <c r="C40" s="28"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="16"/>
       <c r="E40" s="14"/>
       <c r="F40" s="16"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="27"/>
+      <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A41" s="23"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="16"/>
-      <c r="C41" s="30"/>
+      <c r="C41" s="29"/>
       <c r="D41" s="14"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
-      <c r="H41" s="25"/>
+      <c r="H41" s="24"/>
     </row>
     <row r="42" spans="1:8" ht="31.5" customHeight="1">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
-      <c r="C42" s="24"/>
+      <c r="C42" s="23"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="25"/>
+      <c r="H42" s="24"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
-      <c r="C43" s="29"/>
+      <c r="C43" s="28"/>
       <c r="D43" s="16"/>
       <c r="E43" s="14"/>
       <c r="F43" s="16"/>
       <c r="G43" s="17"/>
-      <c r="H43" s="27"/>
+      <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A44" s="23"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="16"/>
-      <c r="C44" s="24"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="14"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
-      <c r="H44" s="25"/>
+      <c r="H44" s="24"/>
     </row>
     <row r="45" spans="1:8" ht="37.5" customHeight="1">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
-      <c r="C45" s="24"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
-      <c r="H45" s="25"/>
+      <c r="H45" s="24"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
-      <c r="C46" s="29"/>
+      <c r="C46" s="28"/>
       <c r="D46" s="16"/>
       <c r="E46" s="14"/>
       <c r="F46" s="16"/>
       <c r="G46" s="17"/>
-      <c r="H46" s="27"/>
+      <c r="H46" s="26"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A47" s="23"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="16"/>
-      <c r="C47" s="24"/>
+      <c r="C47" s="23"/>
       <c r="D47" s="14"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
-      <c r="H47" s="25"/>
+      <c r="H47" s="24"/>
     </row>
     <row r="48" spans="1:8" ht="38.25" customHeight="1">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
-      <c r="C48" s="24"/>
+      <c r="C48" s="23"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
-      <c r="H48" s="25"/>
+      <c r="H48" s="24"/>
     </row>
     <row r="49" ht="30.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>

--- a/q-n-t.com/q-n-t.com.xlsx
+++ b/q-n-t.com/q-n-t.com.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nafees\Desktop\office\q-n-t.com\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\intigsol-office\q-n-t.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B347E6-99CC-4B21-8AAF-4C8AA4BC2C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C30DB9-9BA5-4E2F-A803-AA3E7DE7CCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,12 +21,14 @@
     <definedName name="verify_package_Design" localSheetId="0">'Test Cases'!#REF!</definedName>
     <definedName name="verify_package_Design">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -426,9 +428,6 @@
     <t>Should subscribe</t>
   </si>
   <si>
-    <t>working and not can't understand</t>
-  </si>
-  <si>
     <t>TC027</t>
   </si>
   <si>
@@ -497,6 +496,9 @@
   </si>
   <si>
     <t>It will be a white mood</t>
+  </si>
+  <si>
+    <t>working and can't understand</t>
   </si>
 </sst>
 </file>
@@ -901,6 +903,27 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -917,27 +940,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1763,8 +1765,8 @@
   <dimension ref="A1:I980"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1783,10 +1785,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="39" t="s">
         <v>36</v>
       </c>
@@ -1800,16 +1802,16 @@
         <v>2</v>
       </c>
       <c r="G1" s="41"/>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="47"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:9" ht="12.75">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="5"/>
       <c r="D2" s="3" t="s">
         <v>5</v>
@@ -1828,8 +1830,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="47"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
         <v>8</v>
@@ -1852,10 +1854,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="47"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="5" t="s">
         <v>35</v>
       </c>
@@ -1880,15 +1882,15 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="47"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="54"/>
       <c r="H5" s="10" t="s">
         <v>16</v>
       </c>
@@ -1984,7 +1986,7 @@
       <c r="F9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="G9" s="46" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="43"/>
@@ -2028,7 +2030,7 @@
       <c r="F11" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="46" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="19"/>
@@ -2050,7 +2052,7 @@
       <c r="F12" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="53" t="s">
+      <c r="G12" s="47" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="19"/>
@@ -2094,7 +2096,7 @@
       <c r="F14" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="53" t="s">
+      <c r="G14" s="47" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="24"/>
@@ -2114,7 +2116,7 @@
       <c r="F15" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="48" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="24"/>
@@ -2158,7 +2160,7 @@
       <c r="F17" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="49" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="26"/>
@@ -2180,7 +2182,7 @@
       <c r="F18" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="56" t="s">
+      <c r="G18" s="50" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="24"/>
@@ -2224,7 +2226,7 @@
       <c r="F20" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="56" t="s">
+      <c r="G20" s="50" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="24"/>
@@ -2244,7 +2246,7 @@
       <c r="F21" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="G21" s="50" t="s">
         <v>7</v>
       </c>
       <c r="H21" s="24"/>
@@ -2292,12 +2294,12 @@
       <c r="F23" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="50" t="s">
         <v>7</v>
       </c>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="38.25">
+    <row r="24" spans="1:8" ht="51">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -2316,19 +2318,19 @@
       <c r="F24" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G24" s="56" t="s">
+      <c r="G24" s="50" t="s">
         <v>7</v>
       </c>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="76.5">
+    <row r="25" spans="1:8" ht="102">
       <c r="A25" s="13" t="s">
         <v>99</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="51" t="s">
         <v>100</v>
       </c>
       <c r="D25" s="16" t="s">
@@ -2345,7 +2347,7 @@
       </c>
       <c r="H25" s="26"/>
     </row>
-    <row r="26" spans="1:8" ht="25.5">
+    <row r="26" spans="1:8" ht="38.25">
       <c r="A26" s="22" t="s">
         <v>101</v>
       </c>
@@ -2364,12 +2366,12 @@
       <c r="F26" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="G26" s="58" t="s">
+      <c r="G26" s="52" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="24"/>
     </row>
-    <row r="27" spans="1:8" ht="12.75">
+    <row r="27" spans="1:8" ht="25.5">
       <c r="A27" s="13" t="s">
         <v>105</v>
       </c>
@@ -2386,12 +2388,12 @@
       <c r="F27" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="56" t="s">
+      <c r="G27" s="50" t="s">
         <v>7</v>
       </c>
       <c r="H27" s="24"/>
     </row>
-    <row r="28" spans="1:8" ht="12.75">
+    <row r="28" spans="1:8" ht="25.5">
       <c r="A28" s="13" t="s">
         <v>109</v>
       </c>
@@ -2430,12 +2432,12 @@
       <c r="F29" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="56" t="s">
+      <c r="G29" s="50" t="s">
         <v>7</v>
       </c>
       <c r="H29" s="24"/>
     </row>
-    <row r="30" spans="1:8" ht="12.75">
+    <row r="30" spans="1:8" ht="25.5">
       <c r="A30" s="13" t="s">
         <v>115</v>
       </c>
@@ -2452,7 +2454,7 @@
       <c r="F30" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G30" s="56" t="s">
+      <c r="G30" s="50" t="s">
         <v>7</v>
       </c>
       <c r="H30" s="24"/>
@@ -2479,7 +2481,7 @@
       </c>
       <c r="H31" s="26"/>
     </row>
-    <row r="32" spans="1:8" ht="12.75">
+    <row r="32" spans="1:8" ht="25.5">
       <c r="A32" s="22" t="s">
         <v>122</v>
       </c>
@@ -2496,22 +2498,22 @@
         <v>126</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G32" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="G32" s="52" t="s">
         <v>10</v>
       </c>
       <c r="H32" s="24"/>
     </row>
     <row r="33" spans="1:8" ht="38.25">
       <c r="A33" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>123</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>125</v>
@@ -2520,26 +2522,26 @@
         <v>126</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G33" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="G33" s="52" t="s">
         <v>10</v>
       </c>
       <c r="H33" s="24"/>
     </row>
     <row r="34" spans="1:8" ht="25.5">
       <c r="A34" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>130</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>131</v>
       </c>
       <c r="C34" s="28"/>
       <c r="D34" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>132</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>133</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>41</v>
@@ -2551,61 +2553,61 @@
     </row>
     <row r="35" spans="1:8" ht="24.75" customHeight="1">
       <c r="A35" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>134</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>135</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="F35" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="F35" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="G35" s="56" t="s">
+      <c r="G35" s="50" t="s">
         <v>7</v>
       </c>
       <c r="H35" s="24"/>
     </row>
     <row r="36" spans="1:8" ht="30.75" customHeight="1">
       <c r="A36" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>139</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>140</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="F36" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="F36" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="G36" s="56" t="s">
+      <c r="G36" s="50" t="s">
         <v>7</v>
       </c>
       <c r="H36" s="24"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
       <c r="A37" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>144</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>145</v>
       </c>
       <c r="C37" s="28"/>
       <c r="D37" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F37" s="16" t="s">
         <v>77</v>
@@ -2617,22 +2619,22 @@
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
       <c r="A38" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G38" s="56" t="s">
+      <c r="G38" s="50" t="s">
         <v>7</v>
       </c>
       <c r="H38" s="24"/>
